--- a/biology/Virologie/Babuvirus/Babuvirus.xlsx
+++ b/biology/Virologie/Babuvirus/Babuvirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Babuvirus est un genre de virus de la famille des Nanoviridae qui comprend trois espèces. Ce sont des virus à ADN simple brin circulaire, à génome multipartite, classés dans le groupe II de la classification Baltimore, qui infectent des plantes (phytovirus), exclusivement des Monocotylédones. 
 Les Babuvirus sont présents dans les régions tropicales de l'Ancien Monde (Afrique, Asie, Australie), ainsi que dans les îles du Pacifique. Ils sont transmis par diverses espèces de pucerons (Aphidoidea), selon un mode circulant persistant, mais sans se multiplier dans l'organisme des insectes-vecteurs. Chez les plantes-hôtes, ils sont restreints au tissu vasculaire (phloème) et  provoquent généralement des symptômes de nanisme et de rabougrissement. 
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Babuvirus », est une combinaison formée de la premier syllabe des deux premiers termes du nom de l'espèce-type, Banana bunchy top virus, suivie du suffixe -virus qui caractérise les noms de genres de virus[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Babuvirus », est une combinaison formée de la premier syllabe des deux premiers termes du nom de l'espèce-type, Banana bunchy top virus, suivie du suffixe -virus qui caractérise les noms de genres de virus.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (30 décembre 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (30 décembre 2020) :
 Abaca bunchy top virus (ABTV), virus du sommet touffu de l'abaca
 Banana bunchy top virus (BBTV), virus du sommet touffu du bananier (espèce-type)
 Cardamom bushy dwarf virus (CdBDV), virus du nanisme buissonnant de la cardamome</t>
